--- a/SchedulingData/static8/pso/scheduling1_12.xlsx
+++ b/SchedulingData/static8/pso/scheduling1_12.xlsx
@@ -462,45 +462,45 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond46</t>
+          <t>pond44</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>72</v>
+        <v>65.95999999999999</v>
       </c>
       <c r="E2" t="n">
-        <v>24.48</v>
+        <v>26.064</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond11</t>
+          <t>pond52</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>65.95999999999999</v>
       </c>
       <c r="D3" t="n">
-        <v>70.86</v>
+        <v>105.48</v>
       </c>
       <c r="E3" t="n">
-        <v>26.064</v>
+        <v>22.752</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -511,7 +511,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>59.9</v>
+        <v>64.90000000000001</v>
       </c>
       <c r="E4" t="n">
         <v>26.2</v>
@@ -519,59 +519,59 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond48</t>
+          <t>pond7</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>51</v>
+        <v>49.98</v>
       </c>
       <c r="E5" t="n">
-        <v>26.1</v>
+        <v>26.192</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond60</t>
+          <t>pond13</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>132.36</v>
+        <v>48.74</v>
       </c>
       <c r="E6" t="n">
-        <v>20.564</v>
+        <v>27.296</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond39</t>
+          <t>pond20</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>59.9</v>
+        <v>48.74</v>
       </c>
       <c r="D7" t="n">
-        <v>93.5</v>
+        <v>95.56</v>
       </c>
       <c r="E7" t="n">
-        <v>23.48</v>
+        <v>23.744</v>
       </c>
     </row>
     <row r="8">
@@ -580,17 +580,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond53</t>
+          <t>pond54</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>70.86</v>
+        <v>49.98</v>
       </c>
       <c r="D8" t="n">
-        <v>150.74</v>
+        <v>127.08</v>
       </c>
       <c r="E8" t="n">
-        <v>21.696</v>
+        <v>22.112</v>
       </c>
     </row>
     <row r="9">
@@ -599,36 +599,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond24</t>
+          <t>pond43</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>93.5</v>
+        <v>105.48</v>
       </c>
       <c r="D9" t="n">
-        <v>149.32</v>
+        <v>154.62</v>
       </c>
       <c r="E9" t="n">
-        <v>19.528</v>
+        <v>18.968</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond25</t>
+          <t>pond55</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>150.74</v>
+        <v>64.90000000000001</v>
       </c>
       <c r="D10" t="n">
-        <v>227.22</v>
+        <v>120.5</v>
       </c>
       <c r="E10" t="n">
-        <v>17.648</v>
+        <v>22.28</v>
       </c>
     </row>
     <row r="11">
@@ -637,93 +637,93 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond8</t>
+          <t>pond2</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>95.56</v>
       </c>
       <c r="D11" t="n">
-        <v>49.8</v>
+        <v>145.8</v>
       </c>
       <c r="E11" t="n">
-        <v>26.22</v>
+        <v>20.84</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond4</t>
+          <t>pond36</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>132.36</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>203.08</v>
+        <v>91.40000000000001</v>
       </c>
       <c r="E12" t="n">
-        <v>17.132</v>
+        <v>25.02</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond18</t>
+          <t>pond49</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>49.8</v>
+        <v>127.08</v>
       </c>
       <c r="D13" t="n">
-        <v>128.56</v>
+        <v>196.38</v>
       </c>
       <c r="E13" t="n">
-        <v>22.424</v>
+        <v>18.272</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond17</t>
+          <t>pond57</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>154.62</v>
       </c>
       <c r="D14" t="n">
-        <v>82.3</v>
+        <v>210.62</v>
       </c>
       <c r="E14" t="n">
-        <v>26.4</v>
+        <v>15.488</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond43</t>
+          <t>pond62</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>227.22</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>286.26</v>
+        <v>63.24</v>
       </c>
       <c r="E15" t="n">
-        <v>13.864</v>
+        <v>25.856</v>
       </c>
     </row>
     <row r="16">
@@ -732,169 +732,169 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond63</t>
+          <t>pond25</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>203.08</v>
+        <v>63.24</v>
       </c>
       <c r="D16" t="n">
-        <v>296.18</v>
+        <v>149.62</v>
       </c>
       <c r="E16" t="n">
-        <v>12.932</v>
+        <v>21.808</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pond9</t>
+          <t>pond35</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>82.3</v>
+        <v>196.38</v>
       </c>
       <c r="D17" t="n">
-        <v>129.5</v>
+        <v>257.78</v>
       </c>
       <c r="E17" t="n">
-        <v>22.32</v>
+        <v>14.252</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pond27</t>
+          <t>pond29</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>286.26</v>
+        <v>149.62</v>
       </c>
       <c r="D18" t="n">
-        <v>333.26</v>
+        <v>209.94</v>
       </c>
       <c r="E18" t="n">
-        <v>10.304</v>
+        <v>18.376</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pond36</t>
+          <t>pond45</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>296.18</v>
+        <v>257.78</v>
       </c>
       <c r="D19" t="n">
-        <v>377.08</v>
+        <v>314.02</v>
       </c>
       <c r="E19" t="n">
-        <v>7.952</v>
+        <v>10.248</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pond19</t>
+          <t>pond28</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>333.26</v>
+        <v>145.8</v>
       </c>
       <c r="D20" t="n">
-        <v>383.86</v>
+        <v>218.48</v>
       </c>
       <c r="E20" t="n">
-        <v>5.884</v>
+        <v>16.192</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pond54</t>
+          <t>pond4</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>149.32</v>
+        <v>120.5</v>
       </c>
       <c r="D21" t="n">
-        <v>221.32</v>
+        <v>200.92</v>
       </c>
       <c r="E21" t="n">
-        <v>15.448</v>
+        <v>18.848</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pond37</t>
+          <t>pond1</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>51</v>
+        <v>218.48</v>
       </c>
       <c r="D22" t="n">
-        <v>128.1</v>
+        <v>277.98</v>
       </c>
       <c r="E22" t="n">
-        <v>20.5</v>
+        <v>13.352</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pond35</t>
+          <t>pond9</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>128.56</v>
+        <v>210.62</v>
       </c>
       <c r="D23" t="n">
-        <v>185.06</v>
+        <v>282.82</v>
       </c>
       <c r="E23" t="n">
-        <v>18.404</v>
+        <v>11.408</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pond7</t>
+          <t>pond22</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>129.5</v>
+        <v>200.92</v>
       </c>
       <c r="D24" t="n">
-        <v>203.38</v>
+        <v>251.24</v>
       </c>
       <c r="E24" t="n">
-        <v>18.512</v>
+        <v>15.936</v>
       </c>
     </row>
     <row r="25">
@@ -903,231 +903,231 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pond3</t>
+          <t>pond10</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>221.32</v>
+        <v>282.82</v>
       </c>
       <c r="D25" t="n">
-        <v>307.46</v>
+        <v>323.16</v>
       </c>
       <c r="E25" t="n">
-        <v>11.444</v>
+        <v>8.504</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pond30</t>
+          <t>pond37</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>383.86</v>
+        <v>91.40000000000001</v>
       </c>
       <c r="D26" t="n">
-        <v>440.16</v>
+        <v>158.7</v>
       </c>
       <c r="E26" t="n">
-        <v>2.364</v>
+        <v>19.42</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pond12</t>
+          <t>pond60</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>377.08</v>
+        <v>158.7</v>
       </c>
       <c r="D27" t="n">
-        <v>420.52</v>
+        <v>219.16</v>
       </c>
       <c r="E27" t="n">
-        <v>5.248</v>
+        <v>15.504</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pond1</t>
+          <t>pond17</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>203.38</v>
+        <v>209.94</v>
       </c>
       <c r="D28" t="n">
-        <v>267.58</v>
+        <v>271.94</v>
       </c>
       <c r="E28" t="n">
-        <v>15.672</v>
+        <v>14.776</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pond10</t>
+          <t>pond56</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>128.1</v>
+        <v>314.02</v>
       </c>
       <c r="D29" t="n">
-        <v>188.24</v>
+        <v>371</v>
       </c>
       <c r="E29" t="n">
-        <v>17.596</v>
+        <v>6.66</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pond23</t>
+          <t>pond38</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>307.46</v>
+        <v>219.16</v>
       </c>
       <c r="D30" t="n">
-        <v>372.78</v>
+        <v>295.8</v>
       </c>
       <c r="E30" t="n">
-        <v>8.012</v>
+        <v>10.46</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pond28</t>
+          <t>pond26</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>267.58</v>
+        <v>271.94</v>
       </c>
       <c r="D31" t="n">
-        <v>345.16</v>
+        <v>315.72</v>
       </c>
       <c r="E31" t="n">
-        <v>11.024</v>
+        <v>11.528</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>pond51</t>
+          <t>pond30</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>372.78</v>
+        <v>251.24</v>
       </c>
       <c r="D32" t="n">
-        <v>452.42</v>
+        <v>292.84</v>
       </c>
       <c r="E32" t="n">
-        <v>4.148</v>
+        <v>12.416</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>pond5</t>
+          <t>pond27</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>185.06</v>
+        <v>295.8</v>
       </c>
       <c r="D33" t="n">
-        <v>252.66</v>
+        <v>352.5</v>
       </c>
       <c r="E33" t="n">
-        <v>14.764</v>
+        <v>6.9</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>pond41</t>
+          <t>pond64</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>420.52</v>
+        <v>371</v>
       </c>
       <c r="D34" t="n">
-        <v>484.7</v>
+        <v>407.32</v>
       </c>
       <c r="E34" t="n">
-        <v>2.44</v>
+        <v>3.668</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond61</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>440.16</v>
+        <v>323.16</v>
       </c>
       <c r="D35" t="n">
-        <v>512.23</v>
+        <v>397.58</v>
       </c>
       <c r="E35" t="n">
-        <v>30</v>
+        <v>5.672</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>pond40</t>
+          <t>pond48</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>512.23</v>
+        <v>397.58</v>
       </c>
       <c r="D36" t="n">
-        <v>547.3099999999999</v>
+        <v>462.68</v>
       </c>
       <c r="E36" t="n">
-        <v>27.192</v>
+        <v>1.772</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
@@ -1135,10 +1135,10 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>484.7</v>
+        <v>462.68</v>
       </c>
       <c r="D37" t="n">
-        <v>581.12</v>
+        <v>526.14</v>
       </c>
       <c r="E37" t="n">
         <v>30</v>
@@ -1150,74 +1150,74 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>pond50</t>
+          <t>pond3</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>581.12</v>
+        <v>315.72</v>
       </c>
       <c r="D38" t="n">
-        <v>663.3200000000001</v>
+        <v>377.06</v>
       </c>
       <c r="E38" t="n">
-        <v>25.92</v>
+        <v>7.524</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>pond57</t>
+          <t>pond19</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>345.16</v>
+        <v>292.84</v>
       </c>
       <c r="D39" t="n">
-        <v>416.06</v>
+        <v>358.14</v>
       </c>
       <c r="E39" t="n">
-        <v>7.544</v>
+        <v>7.996</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>pond38</t>
+          <t>pond40</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>416.06</v>
+        <v>526.14</v>
       </c>
       <c r="D40" t="n">
-        <v>507.4</v>
+        <v>561.22</v>
       </c>
       <c r="E40" t="n">
-        <v>2.5</v>
+        <v>27.192</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond34</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>507.4</v>
+        <v>377.06</v>
       </c>
       <c r="D41" t="n">
-        <v>579.2</v>
+        <v>436.36</v>
       </c>
       <c r="E41" t="n">
-        <v>30</v>
+        <v>4.224</v>
       </c>
     </row>
     <row r="42">
@@ -1226,93 +1226,93 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>pond6</t>
+          <t>pond63</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>579.2</v>
+        <v>352.5</v>
       </c>
       <c r="D42" t="n">
-        <v>635.64</v>
+        <v>435.5</v>
       </c>
       <c r="E42" t="n">
-        <v>27.036</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>pond20</t>
+          <t>pond12</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>188.24</v>
+        <v>277.98</v>
       </c>
       <c r="D43" t="n">
-        <v>239.96</v>
+        <v>326.12</v>
       </c>
       <c r="E43" t="n">
-        <v>14.044</v>
+        <v>10.648</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>pond62</t>
+          <t>pond21</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>239.96</v>
+        <v>561.22</v>
       </c>
       <c r="D44" t="n">
-        <v>317.6</v>
+        <v>631.12</v>
       </c>
       <c r="E44" t="n">
-        <v>9.9</v>
+        <v>22.812</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>pond34</t>
+          <t>pond15</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>317.6</v>
+        <v>436.36</v>
       </c>
       <c r="D45" t="n">
-        <v>386.6</v>
+        <v>513.78</v>
       </c>
       <c r="E45" t="n">
-        <v>6.6</v>
+        <v>0.572</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>pond29</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>252.66</v>
+        <v>513.78</v>
       </c>
       <c r="D46" t="n">
-        <v>303.38</v>
+        <v>589.54</v>
       </c>
       <c r="E46" t="n">
-        <v>11.332</v>
+        <v>30</v>
       </c>
     </row>
     <row r="47">
@@ -1321,55 +1321,55 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>pond32</t>
+          <t>pond50</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>386.6</v>
+        <v>358.14</v>
       </c>
       <c r="D47" t="n">
-        <v>475.8</v>
+        <v>425.24</v>
       </c>
       <c r="E47" t="n">
-        <v>1.26</v>
+        <v>3.916</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond8</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>475.8</v>
+        <v>631.12</v>
       </c>
       <c r="D48" t="n">
-        <v>540.28</v>
+        <v>695.02</v>
       </c>
       <c r="E48" t="n">
-        <v>30</v>
+        <v>19.032</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>pond55</t>
+          <t>pond6</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>303.38</v>
+        <v>407.32</v>
       </c>
       <c r="D49" t="n">
-        <v>368.78</v>
+        <v>483.16</v>
       </c>
       <c r="E49" t="n">
-        <v>7.412</v>
+        <v>0.704</v>
       </c>
     </row>
     <row r="50">
@@ -1378,117 +1378,117 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>pond52</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>547.3099999999999</v>
+        <v>483.16</v>
       </c>
       <c r="D50" t="n">
-        <v>611.4299999999999</v>
+        <v>568.55</v>
       </c>
       <c r="E50" t="n">
-        <v>23.88</v>
+        <v>30</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>pond15</t>
+          <t>pond14</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>540.28</v>
+        <v>326.12</v>
       </c>
       <c r="D51" t="n">
-        <v>593.7</v>
+        <v>384.32</v>
       </c>
       <c r="E51" t="n">
-        <v>26.348</v>
+        <v>6.448</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>pond64</t>
+          <t>pond23</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>368.78</v>
+        <v>568.55</v>
       </c>
       <c r="D52" t="n">
-        <v>410</v>
+        <v>614.77</v>
       </c>
       <c r="E52" t="n">
-        <v>4.42</v>
+        <v>26.568</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>pond26</t>
+          <t>pond33</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>410</v>
+        <v>589.54</v>
       </c>
       <c r="D53" t="n">
-        <v>493.28</v>
+        <v>663.6</v>
       </c>
       <c r="E53" t="n">
-        <v>1.172</v>
+        <v>26.724</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond39</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>493.28</v>
+        <v>695.02</v>
       </c>
       <c r="D54" t="n">
-        <v>587.34</v>
+        <v>748.52</v>
       </c>
       <c r="E54" t="n">
-        <v>30</v>
+        <v>16.312</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>pond45</t>
+          <t>pond42</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>452.42</v>
+        <v>384.32</v>
       </c>
       <c r="D55" t="n">
-        <v>508.66</v>
+        <v>453.88</v>
       </c>
       <c r="E55" t="n">
-        <v>0.144</v>
+        <v>3.592</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
@@ -1496,10 +1496,10 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>508.66</v>
+        <v>435.5</v>
       </c>
       <c r="D56" t="n">
-        <v>590.0700000000001</v>
+        <v>512</v>
       </c>
       <c r="E56" t="n">
         <v>30</v>
@@ -1507,97 +1507,97 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>pond44</t>
+          <t>pond32</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>593.7</v>
+        <v>512</v>
       </c>
       <c r="D57" t="n">
-        <v>669.16</v>
+        <v>572.4</v>
       </c>
       <c r="E57" t="n">
-        <v>22.412</v>
+        <v>24.66</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>pond56</t>
+          <t>pond47</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>669.16</v>
+        <v>748.52</v>
       </c>
       <c r="D58" t="n">
-        <v>731.04</v>
+        <v>780.52</v>
       </c>
       <c r="E58" t="n">
-        <v>18.824</v>
+        <v>13.752</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>pond61</t>
+          <t>pond51</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>611.4299999999999</v>
+        <v>425.24</v>
       </c>
       <c r="D59" t="n">
-        <v>651.05</v>
+        <v>475.18</v>
       </c>
       <c r="E59" t="n">
-        <v>21.048</v>
+        <v>0.052</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>pond21</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>635.64</v>
+        <v>475.18</v>
       </c>
       <c r="D60" t="n">
-        <v>695.74</v>
+        <v>571.58</v>
       </c>
       <c r="E60" t="n">
-        <v>22.656</v>
+        <v>30</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>pond33</t>
+          <t>pond58</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>590.0700000000001</v>
+        <v>453.88</v>
       </c>
       <c r="D61" t="n">
-        <v>664.13</v>
+        <v>495.52</v>
       </c>
       <c r="E61" t="n">
-        <v>26.724</v>
+        <v>0.5679999999999999</v>
       </c>
     </row>
     <row r="62">
@@ -1606,36 +1606,36 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>pond13</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>587.34</v>
+        <v>495.52</v>
       </c>
       <c r="D62" t="n">
-        <v>641.08</v>
+        <v>600.78</v>
       </c>
       <c r="E62" t="n">
-        <v>27.296</v>
+        <v>30</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>pond42</t>
+          <t>pond59</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>663.3200000000001</v>
+        <v>600.78</v>
       </c>
       <c r="D63" t="n">
-        <v>698.28</v>
+        <v>683.16</v>
       </c>
       <c r="E63" t="n">
-        <v>23.064</v>
+        <v>25.912</v>
       </c>
     </row>
     <row r="64">
@@ -1644,131 +1644,131 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>pond58</t>
+          <t>pond18</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>698.28</v>
+        <v>663.6</v>
       </c>
       <c r="D64" t="n">
-        <v>739.92</v>
+        <v>717.86</v>
       </c>
       <c r="E64" t="n">
-        <v>20.04</v>
+        <v>22.928</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>pond49</t>
+          <t>pond5</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>641.08</v>
+        <v>614.77</v>
       </c>
       <c r="D65" t="n">
-        <v>725.48</v>
+        <v>672.37</v>
       </c>
       <c r="E65" t="n">
-        <v>23.456</v>
+        <v>22.928</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>pond59</t>
+          <t>pond24</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>739.92</v>
+        <v>572.4</v>
       </c>
       <c r="D66" t="n">
-        <v>792.1</v>
+        <v>618.3200000000001</v>
       </c>
       <c r="E66" t="n">
-        <v>15.952</v>
+        <v>20.708</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>pond2</t>
+          <t>pond11</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>731.04</v>
+        <v>672.37</v>
       </c>
       <c r="D67" t="n">
-        <v>820.88</v>
+        <v>727.9299999999999</v>
       </c>
       <c r="E67" t="n">
-        <v>15.92</v>
+        <v>18.992</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>pond22</t>
+          <t>pond41</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>695.74</v>
+        <v>727.9299999999999</v>
       </c>
       <c r="D68" t="n">
-        <v>736.16</v>
+        <v>787.21</v>
       </c>
       <c r="E68" t="n">
-        <v>19.744</v>
+        <v>16.184</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>pond16</t>
+          <t>pond46</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>736.16</v>
+        <v>717.86</v>
       </c>
       <c r="D69" t="n">
-        <v>777</v>
+        <v>809.0599999999999</v>
       </c>
       <c r="E69" t="n">
-        <v>17.28</v>
+        <v>17.408</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>pond47</t>
+          <t>pond53</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>651.05</v>
+        <v>571.58</v>
       </c>
       <c r="D70" t="n">
-        <v>697.85</v>
+        <v>641.96</v>
       </c>
       <c r="E70" t="n">
-        <v>18.488</v>
+        <v>25.632</v>
       </c>
     </row>
     <row r="71">
@@ -1777,17 +1777,17 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>pond14</t>
+          <t>pond16</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>777</v>
+        <v>618.3200000000001</v>
       </c>
       <c r="D71" t="n">
-        <v>835.2</v>
+        <v>649.36</v>
       </c>
       <c r="E71" t="n">
-        <v>13.08</v>
+        <v>18.244</v>
       </c>
     </row>
   </sheetData>
